--- a/testing/testSuite/src/main/resources/TestSubledgerAccount/testSingleValidFeed/ExpectedResults.xlsx
+++ b/testing/testSuite/src/main/resources/TestSubledgerAccount/testSingleValidFeed/ExpectedResults.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E9DC5C-41AE-4190-987B-979C7927E823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15450" yWindow="0" windowWidth="20055" windowHeight="10035" tabRatio="653"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="er_slr_entity_accounts" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
   <si>
     <t>N</t>
   </si>
@@ -93,16 +102,7 @@
     <t>Test account #5 - A</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>NVS</t>
-  </si>
-  <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>00000013</t>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,17 +495,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
@@ -621,25 +621,25 @@
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="2">
-        <v>36892</v>
+        <v>42984</v>
       </c>
       <c r="G4" s="2">
         <v>73050</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -653,25 +653,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2">
-        <v>36892</v>
+        <v>42984</v>
       </c>
       <c r="G5" s="2">
         <v>73050</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -685,13 +685,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -703,7 +703,7 @@
         <v>73050</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -735,7 +735,7 @@
         <v>73050</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -767,7 +767,7 @@
         <v>73050</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
         <v>0</v>
@@ -781,13 +781,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -799,7 +799,7 @@
         <v>73050</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
@@ -813,25 +813,25 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
-        <v>42984</v>
+        <v>42979</v>
       </c>
       <c r="G10" s="2">
-        <v>73050</v>
+        <v>42980</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -845,94 +845,30 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
-        <v>42984</v>
+        <v>42979</v>
       </c>
       <c r="G11" s="2">
-        <v>73050</v>
+        <v>42980</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2">
-        <v>42979</v>
-      </c>
-      <c r="G12" s="2">
-        <v>42980</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2">
-        <v>42979</v>
-      </c>
-      <c r="G13" s="2">
-        <v>42980</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
         <v>0</v>
       </c>
     </row>
